--- a/outputs/Dual_Channel_NST/Dual_Channel_NST_losses.xlsx
+++ b/outputs/Dual_Channel_NST/Dual_Channel_NST_losses.xlsx
@@ -1366,7 +1366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1484,6 +1484,91 @@
       </c>
       <c r="E6" t="n">
         <v>142275.09375</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" t="n">
+        <v>113535.6328125</v>
+      </c>
+      <c r="C7" t="n">
+        <v>55499.0546875</v>
+      </c>
+      <c r="D7" t="n">
+        <v>35861.62109375</v>
+      </c>
+      <c r="E7" t="n">
+        <v>204896.3125</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>40</v>
+      </c>
+      <c r="B8" t="n">
+        <v>108269.234375</v>
+      </c>
+      <c r="C8" t="n">
+        <v>36612.93359375</v>
+      </c>
+      <c r="D8" t="n">
+        <v>28525.248046875</v>
+      </c>
+      <c r="E8" t="n">
+        <v>173407.421875</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60</v>
+      </c>
+      <c r="B9" t="n">
+        <v>98344.109375</v>
+      </c>
+      <c r="C9" t="n">
+        <v>34186.05859375</v>
+      </c>
+      <c r="D9" t="n">
+        <v>26141.60546875</v>
+      </c>
+      <c r="E9" t="n">
+        <v>158671.78125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>80</v>
+      </c>
+      <c r="B10" t="n">
+        <v>90504</v>
+      </c>
+      <c r="C10" t="n">
+        <v>34065.015625</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25480.552734375</v>
+      </c>
+      <c r="E10" t="n">
+        <v>150049.5625</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>100</v>
+      </c>
+      <c r="B11" t="n">
+        <v>84102.859375</v>
+      </c>
+      <c r="C11" t="n">
+        <v>33982.4140625</v>
+      </c>
+      <c r="D11" t="n">
+        <v>25339.896484375</v>
+      </c>
+      <c r="E11" t="n">
+        <v>143425.171875</v>
       </c>
     </row>
   </sheetData>
